--- a/SPPSApi/Doc/Template/FS0607.xlsx
+++ b/SPPSApi/Doc/Template/FS0607.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>纳入日-开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,9 +385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -391,9 +397,10 @@
     <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -406,6 +413,9 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SPPSApi/Doc/Template/FS0607.xlsx
+++ b/SPPSApi/Doc/Template/FS0607.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>纳入日-开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>工区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,11 +381,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -397,10 +391,9 @@
     <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -413,9 +406,6 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SPPSApi/Doc/Template/FS0607.xlsx
+++ b/SPPSApi/Doc/Template/FS0607.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>纳入日-开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,9 +385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -391,9 +397,10 @@
     <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -406,6 +413,9 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SPPSApi/Doc/Template/FS0607.xlsx
+++ b/SPPSApi/Doc/Template/FS0607.xlsx
@@ -18,14 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>纳入日-开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳入日-结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -35,6 +27,14 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +388,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -402,19 +402,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0607.xlsx
+++ b/SPPSApi/Doc/Template/FS0607.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>供应商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,12 +37,15 @@
     <t>结束日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>格式=文本</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +60,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,11 +96,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -417,6 +441,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0607.xlsx
+++ b/SPPSApi/Doc/Template/FS0607.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>供应商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,12 +37,15 @@
     <t>结束日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>格式=文本</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +60,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,11 +96,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -417,6 +441,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
